--- a/work/大川情報開発合同会社2021-03-31.xlsx
+++ b/work/大川情報開発合同会社2021-03-31.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="2021-03-31請求書" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)" numFmtId="164"/>
     <numFmt formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0" numFmtId="165"/>
+    <numFmt formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" numFmtId="166"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -68,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -827,6 +828,59 @@
       </left>
       <right/>
       <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -918,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -980,24 +1034,6 @@
     <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf applyAlignment="1" borderId="47" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,16 +1059,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="37" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="31" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="44" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,54 +1100,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="57" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,11 +1124,47 @@
     <xf applyAlignment="1" borderId="41" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="31" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf applyAlignment="1" borderId="42" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1121,33 +1174,104 @@
     <xf applyAlignment="1" borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="41" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="63" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="60" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="66" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="60" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="61" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="63" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="40" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="41" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1524,11 +1648,11 @@
   </sheetPr>
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="18" width="8.77734375"/>
     <col customWidth="1" max="3" min="3" style="18" width="8.88671875"/>
@@ -1537,54 +1661,56 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="G1" s="51" t="inlineStr">
+      <c r="G1" s="56" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="H1" s="49" t="inlineStr">
-        <is>
-          <t>2021-03-31</t>
-        </is>
-      </c>
-      <c r="I1" s="50" t="n"/>
+      <c r="H1" s="121" t="inlineStr">
+        <is>
+          <t>2021/03/31</t>
+        </is>
+      </c>
+      <c r="I1" s="57" t="n"/>
     </row>
     <row r="2">
-      <c r="G2" s="51" t="inlineStr">
+      <c r="G2" s="56" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="H2" s="51" t="inlineStr">
+      <c r="H2" s="56" t="inlineStr">
         <is>
           <t>210301</t>
         </is>
       </c>
-      <c r="I2" s="50" t="n"/>
+      <c r="I2" s="57" t="n"/>
     </row>
     <row r="3">
-      <c r="D3" s="52" t="inlineStr">
+      <c r="D3" s="58" t="inlineStr">
         <is>
           <t>御　請　求　書</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="4" s="18" thickBot="1" thickTop="1">
-      <c r="D4" s="53" t="n"/>
-      <c r="E4" s="53" t="n"/>
-      <c r="F4" s="53" t="n"/>
-      <c r="G4" s="53" t="n"/>
+      <c r="D4" s="59" t="n"/>
+      <c r="E4" s="59" t="n"/>
+      <c r="F4" s="59" t="n"/>
+      <c r="G4" s="59" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="5" s="18" thickTop="1">
       <c r="D5" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="6" s="18">
-      <c r="A6" s="54" t="inlineStr">
+      <c r="A6" s="60" t="inlineStr">
         <is>
           <t>大川情報開発合同会社　御中</t>
         </is>
       </c>
     </row>
+    <row r="7"/>
+    <row r="8"/>
     <row r="9">
       <c r="G9" t="inlineStr">
         <is>
@@ -1620,6 +1746,7 @@
         </is>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
@@ -1634,13 +1761,13 @@
           <t>受注No.</t>
         </is>
       </c>
-      <c r="B17" s="94" t="inlineStr">
+      <c r="B17" s="122" t="inlineStr">
         <is>
           <t>商品名</t>
         </is>
       </c>
-      <c r="C17" s="56" t="n"/>
-      <c r="D17" s="56" t="n"/>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="62" t="n"/>
       <c r="E17" s="5" t="inlineStr">
         <is>
           <t>数量</t>
@@ -1656,141 +1783,144 @@
           <t>金額</t>
         </is>
       </c>
-      <c r="H17" s="57" t="inlineStr">
+      <c r="H17" s="63" t="inlineStr">
         <is>
           <t>備考</t>
         </is>
       </c>
-      <c r="I17" s="58" t="n"/>
+      <c r="I17" s="64" t="n"/>
       <c r="M17" s="6" t="n"/>
     </row>
     <row customHeight="1" ht="20.4" r="18" s="18" thickTop="1">
       <c r="A18" s="19" t="n">
-        <v>210201</v>
-      </c>
-      <c r="B18" s="95" t="inlineStr">
-        <is>
-          <t>顧問料</t>
-        </is>
-      </c>
-      <c r="C18" s="16" t="n"/>
-      <c r="D18" s="96" t="n"/>
-      <c r="E18" s="82" t="n"/>
-      <c r="F18" s="82" t="n"/>
-      <c r="G18" s="95" t="n">
-        <v>80000</v>
-      </c>
-      <c r="H18" s="71" t="inlineStr">
-        <is>
-          <t>2021.2月分</t>
-        </is>
-      </c>
-      <c r="I18" s="72" t="n"/>
+        <v>201203</v>
+      </c>
+      <c r="B18" s="123" t="inlineStr">
+        <is>
+          <t>社内教育企画</t>
+        </is>
+      </c>
+      <c r="C18" s="124" t="n"/>
+      <c r="D18" s="125" t="n"/>
+      <c r="E18" s="69" t="n"/>
+      <c r="F18" s="69" t="n"/>
+      <c r="G18" s="126" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H18" s="42" t="n"/>
+      <c r="I18" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="20.4" r="19" s="18">
-      <c r="A19" s="97" t="n"/>
-      <c r="B19" s="73" t="n"/>
-      <c r="C19" s="98" t="n"/>
-      <c r="D19" s="99" t="n"/>
-      <c r="E19" s="81" t="n"/>
-      <c r="F19" s="81" t="n"/>
-      <c r="G19" s="81" t="n"/>
-      <c r="H19" s="73" t="n"/>
-      <c r="I19" s="74" t="n"/>
+      <c r="A19" s="127" t="n"/>
+      <c r="B19" s="128" t="n"/>
+      <c r="C19" s="129" t="n"/>
+      <c r="D19" s="130" t="n"/>
+      <c r="E19" s="52" t="n"/>
+      <c r="F19" s="52" t="n"/>
+      <c r="G19" s="52" t="n"/>
+      <c r="H19" s="44" t="n"/>
+      <c r="I19" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="20.4" r="20" s="18">
       <c r="A20" s="21" t="n">
-        <v>201203</v>
-      </c>
-      <c r="B20" s="100" t="inlineStr">
-        <is>
-          <t>社内教育企画</t>
-        </is>
-      </c>
-      <c r="C20" s="101" t="n"/>
-      <c r="D20" s="102" t="n"/>
-      <c r="E20" s="84" t="n"/>
-      <c r="F20" s="84" t="n"/>
-      <c r="G20" s="103" t="n">
-        <v>150000</v>
-      </c>
-      <c r="H20" s="75" t="n"/>
-      <c r="I20" s="76" t="n"/>
+        <v>210201</v>
+      </c>
+      <c r="B20" s="131" t="n"/>
+      <c r="C20" s="99" t="n"/>
+      <c r="D20" s="100" t="n"/>
+      <c r="E20" s="71" t="n"/>
+      <c r="F20" s="71" t="n"/>
+      <c r="G20" s="132" t="n">
+        <v>80000</v>
+      </c>
+      <c r="H20" s="46" t="inlineStr">
+        <is>
+          <t>2021.2月分</t>
+        </is>
+      </c>
+      <c r="I20" s="47" t="n"/>
     </row>
     <row customHeight="1" ht="20.4" r="21" s="18">
       <c r="A21" s="22" t="n"/>
-      <c r="B21" s="104" t="n"/>
-      <c r="C21" s="59" t="n"/>
-      <c r="D21" s="60" t="n"/>
-      <c r="E21" s="47" t="n"/>
-      <c r="F21" s="47" t="n"/>
-      <c r="G21" s="47" t="n"/>
-      <c r="H21" s="77" t="n"/>
-      <c r="I21" s="78" t="n"/>
+      <c r="B21" s="133" t="n"/>
+      <c r="C21" s="101" t="n"/>
+      <c r="D21" s="102" t="n"/>
+      <c r="E21" s="41" t="n"/>
+      <c r="F21" s="41" t="n"/>
+      <c r="G21" s="41" t="n"/>
+      <c r="H21" s="118" t="n"/>
+      <c r="I21" s="49" t="n"/>
     </row>
     <row customHeight="1" ht="20.4" r="22" s="18">
-      <c r="A22" s="38" t="n"/>
-      <c r="B22" s="35" t="n"/>
-      <c r="C22" s="36" t="n"/>
-      <c r="D22" s="37" t="n"/>
-      <c r="E22" s="48" t="n"/>
-      <c r="F22" s="48" t="n"/>
-      <c r="G22" s="105" t="n"/>
-      <c r="H22" s="79" t="n"/>
+      <c r="A22" s="32" t="n"/>
+      <c r="B22" s="113" t="n"/>
+      <c r="C22" s="103" t="n"/>
+      <c r="D22" s="104" t="n"/>
+      <c r="E22" s="70" t="n"/>
+      <c r="F22" s="70" t="n"/>
+      <c r="G22" s="134" t="n">
+        <v>18400.00000000003</v>
+      </c>
+      <c r="H22" s="50" t="n"/>
       <c r="I22" s="26" t="n"/>
     </row>
     <row customHeight="1" ht="20.4" r="23" s="18">
-      <c r="A23" s="39" t="n"/>
-      <c r="B23" s="85" t="n"/>
-      <c r="C23" s="106" t="n"/>
-      <c r="D23" s="107" t="n"/>
-      <c r="E23" s="47" t="n"/>
-      <c r="F23" s="47" t="n"/>
-      <c r="G23" s="47" t="n"/>
-      <c r="H23" s="77" t="n"/>
-      <c r="I23" s="78" t="n"/>
+      <c r="A23" s="33" t="n"/>
+      <c r="B23" s="114" t="inlineStr">
+        <is>
+          <t>以上に掛かる消費税</t>
+        </is>
+      </c>
+      <c r="C23" s="115" t="n"/>
+      <c r="D23" s="105" t="n"/>
+      <c r="E23" s="41" t="n"/>
+      <c r="F23" s="41" t="n"/>
+      <c r="G23" s="41" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="49" t="n"/>
     </row>
     <row customHeight="1" ht="20.4" r="24" s="18">
-      <c r="A24" s="40" t="n"/>
-      <c r="B24" s="88" t="n"/>
-      <c r="D24" s="108" t="n"/>
-      <c r="E24" s="48" t="n"/>
-      <c r="F24" s="48" t="n"/>
-      <c r="G24" s="105" t="n"/>
-      <c r="H24" s="79" t="n"/>
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="116" t="n"/>
+      <c r="C24" s="117" t="n"/>
+      <c r="D24" s="106" t="n"/>
+      <c r="E24" s="70" t="n"/>
+      <c r="F24" s="70" t="n"/>
+      <c r="G24" s="134" t="n"/>
+      <c r="H24" s="50" t="n"/>
       <c r="I24" s="26" t="n"/>
     </row>
     <row customHeight="1" ht="20.4" r="25" s="18">
-      <c r="A25" s="41" t="n"/>
-      <c r="B25" s="47" t="n"/>
-      <c r="C25" s="59" t="n"/>
-      <c r="D25" s="60" t="n"/>
-      <c r="E25" s="47" t="n"/>
-      <c r="F25" s="47" t="n"/>
-      <c r="G25" s="47" t="n"/>
-      <c r="H25" s="77" t="n"/>
-      <c r="I25" s="78" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="26" s="18">
-      <c r="A26" s="42" t="n"/>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="36" t="n"/>
-      <c r="D26" s="37" t="n"/>
-      <c r="E26" s="64" t="n"/>
-      <c r="F26" s="64" t="n"/>
-      <c r="G26" s="109" t="n"/>
+      <c r="A25" s="35" t="n"/>
+      <c r="B25" s="118" t="n"/>
+      <c r="C25" s="107" t="n"/>
+      <c r="D25" s="108" t="n"/>
+      <c r="E25" s="41" t="n"/>
+      <c r="F25" s="41" t="n"/>
+      <c r="G25" s="41" t="n"/>
+      <c r="H25" s="118" t="n"/>
+      <c r="I25" s="49" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="26" s="18" thickBot="1">
+      <c r="A26" s="36" t="n"/>
+      <c r="B26" s="119" t="n"/>
+      <c r="C26" s="103" t="n"/>
+      <c r="D26" s="104" t="n"/>
+      <c r="E26" s="68" t="n"/>
+      <c r="F26" s="68" t="n"/>
+      <c r="G26" s="135" t="n"/>
       <c r="H26" s="25" t="n"/>
       <c r="I26" s="26" t="n"/>
     </row>
-    <row customHeight="1" ht="20.4" r="27" s="18" thickBot="1">
-      <c r="A27" s="43" t="n"/>
-      <c r="B27" s="45" t="n"/>
-      <c r="C27" s="62" t="n"/>
-      <c r="D27" s="63" t="n"/>
-      <c r="E27" s="45" t="n"/>
-      <c r="F27" s="45" t="n"/>
-      <c r="G27" s="45" t="n"/>
-      <c r="H27" s="27" t="n"/>
+    <row customHeight="1" ht="20.4" r="27" s="18" thickBot="1" thickTop="1">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="120" t="n"/>
+      <c r="C27" s="109" t="n"/>
+      <c r="D27" s="110" t="n"/>
+      <c r="E27" s="39" t="n"/>
+      <c r="F27" s="39" t="n"/>
+      <c r="G27" s="39" t="n"/>
+      <c r="H27" s="120" t="n"/>
       <c r="I27" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="26.4" r="28" s="18" thickBot="1" thickTop="1">
@@ -1804,15 +1934,16 @@
         </is>
       </c>
       <c r="F28" s="24" t="n"/>
-      <c r="G28" s="110" t="n"/>
+      <c r="G28" s="136" t="n"/>
       <c r="H28" s="2" t="n"/>
       <c r="I28" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="26.4" r="29" s="18">
       <c r="E29" s="4" t="n"/>
       <c r="F29" s="4" t="n"/>
-      <c r="G29" s="111" t="n"/>
-    </row>
+      <c r="G29" s="137" t="n"/>
+    </row>
+    <row r="30"/>
     <row customHeight="1" ht="19.8" r="31" s="18">
       <c r="A31" s="3" t="inlineStr">
         <is>
@@ -1879,28 +2010,23 @@
       <c r="AA35" s="17" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
+  <mergeCells count="35">
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B18:D19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D3:G4"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="H20:I21"/>
     <mergeCell ref="H22:I23"/>
@@ -1915,15 +2041,11 @@
     <mergeCell ref="B31:AA31"/>
     <mergeCell ref="C32:Y32"/>
     <mergeCell ref="H26:I27"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F24:F25"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
